--- a/data/Opentaps.xlsx
+++ b/data/Opentaps.xlsx
@@ -102,23 +102,22 @@
     <t>NewLeadID</t>
   </si>
   <si>
-    <t>Mycompany (10009)</t>
-  </si>
-  <si>
-    <t>10009</t>
-  </si>
-  <si>
-    <t>Newcompany (10011)</t>
-  </si>
-  <si>
-    <t>10011</t>
+    <t>Mycompany (10044)</t>
+  </si>
+  <si>
+    <t>10044</t>
+  </si>
+  <si>
+    <t>Newcompany (10045)</t>
+  </si>
+  <si>
+    <t>10045</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -461,7 +460,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
